--- a/Data/EXCData/2018.xlsx
+++ b/Data/EXCData/2018.xlsx
@@ -40,24 +40,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="571">
   <si>
-    <t>Country or region</t>
-  </si>
-  <si>
-    <t>Happiness Score</t>
-  </si>
-  <si>
-    <t>GDP per capita</t>
-  </si>
-  <si>
-    <t>Healthy life expectancy</t>
-  </si>
-  <si>
     <t>Freedom</t>
   </si>
   <si>
-    <t>Perceptions of corruption</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -1751,6 +1736,21 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>scoreH</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>corruption</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2099,7 @@
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,36 +2117,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>570</v>
       </c>
       <c r="G1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>7.6319999999999997</v>
@@ -2161,21 +2161,21 @@
         <v>0.68100000000000005</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>7.5940000000000003</v>
@@ -2190,21 +2190,21 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3.6320000000000001</v>
@@ -2219,21 +2219,21 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>7.5549999999999997</v>
@@ -2248,21 +2248,21 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>3.7949999999999999</v>
@@ -2277,21 +2277,21 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>7.4950000000000001</v>
@@ -2306,21 +2306,21 @@
         <v>0.67700000000000005</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>4.5860000000000003</v>
@@ -2335,21 +2335,21 @@
         <v>0.41899999999999998</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>7.4870000000000001</v>
@@ -2364,21 +2364,21 @@
         <v>0.66</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>7.4409999999999998</v>
@@ -2393,21 +2393,21 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>6.774</v>
@@ -2422,21 +2422,21 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>7.3280000000000003</v>
@@ -2451,21 +2451,21 @@
         <v>0.65300000000000002</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>6.3879999999999999</v>
@@ -2480,21 +2480,21 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>7.3239999999999998</v>
@@ -2509,21 +2509,21 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>4.3209999999999997</v>
@@ -2538,21 +2538,21 @@
         <v>0.26</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>7.2720000000000002</v>
@@ -2567,21 +2567,21 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>7.19</v>
@@ -2596,21 +2596,21 @@
         <v>0.46400000000000002</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>7.1390000000000002</v>
@@ -2625,21 +2625,21 @@
         <v>0.61699999999999999</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>7.0720000000000001</v>
@@ -2654,21 +2654,21 @@
         <v>0.63200000000000001</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>5.2009999999999996</v>
@@ -2683,21 +2683,21 @@
         <v>0.43</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>6.9770000000000003</v>
@@ -2712,21 +2712,21 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B22">
         <v>2.9049999999999998</v>
@@ -2741,21 +2741,21 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>6.9649999999999999</v>
@@ -2770,21 +2770,21 @@
         <v>0.58599999999999997</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B24">
         <v>6.9269999999999996</v>
@@ -2799,21 +2799,21 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B25">
         <v>4.141</v>
@@ -2828,21 +2828,21 @@
         <v>0.44</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>6.91</v>
@@ -2857,21 +2857,21 @@
         <v>0.63200000000000001</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B27">
         <v>4.4240000000000004</v>
@@ -2886,21 +2886,21 @@
         <v>0.312</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <v>4.5</v>
@@ -2915,21 +2915,21 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B29">
         <v>6.8140000000000001</v>
@@ -2944,21 +2944,21 @@
         <v>0.53300000000000003</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B30">
         <v>4.9329999999999998</v>
@@ -2973,21 +2973,21 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B31">
         <v>6.1050000000000004</v>
@@ -3002,21 +3002,21 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B32">
         <v>6.7110000000000003</v>
@@ -3031,21 +3031,21 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B33">
         <v>6.6269999999999998</v>
@@ -3060,21 +3060,21 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B34">
         <v>5.1289999999999996</v>
@@ -3092,18 +3092,18 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I34" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B35">
         <v>6.4889999999999999</v>
@@ -3118,21 +3118,21 @@
         <v>0.52</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I35" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B36">
         <v>5.4829999999999997</v>
@@ -3147,21 +3147,21 @@
         <v>0.307</v>
       </c>
       <c r="F36" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H36" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B37">
         <v>6.4880000000000004</v>
@@ -3176,21 +3176,21 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H37" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I37" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B38">
         <v>5.9560000000000004</v>
@@ -3205,21 +3205,21 @@
         <v>0.59299999999999997</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G38" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B39">
         <v>6.476</v>
@@ -3234,21 +3234,21 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H39" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I39" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B40">
         <v>5.7519999999999998</v>
@@ -3263,21 +3263,21 @@
         <v>0.60599999999999998</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H40" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B41">
         <v>6.43</v>
@@ -3292,21 +3292,21 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="F41" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G41" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H41" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I41" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B42">
         <v>6.4189999999999996</v>
@@ -3321,21 +3321,21 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="F42" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G42" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H42" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I42" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B43">
         <v>6.3819999999999997</v>
@@ -3350,21 +3350,21 @@
         <v>0.60399999999999998</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H43" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B44">
         <v>5.0819999999999999</v>
@@ -3379,21 +3379,21 @@
         <v>0.54100000000000004</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H44" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B45">
         <v>3.59</v>
@@ -3408,21 +3408,21 @@
         <v>0.55700000000000005</v>
       </c>
       <c r="F45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H45" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I45" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B46">
         <v>3.0830000000000002</v>
@@ -3437,21 +3437,21 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="F46" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H46" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I46" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B47">
         <v>6.3220000000000001</v>
@@ -3466,21 +3466,21 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="F47" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G47" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H47" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I47" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B48">
         <v>6.31</v>
@@ -3495,21 +3495,21 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="F48" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G48" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H48" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I48" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B49">
         <v>5.2460000000000004</v>
@@ -3524,21 +3524,21 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="F49" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G49" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H49" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I49" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B50">
         <v>6.26</v>
@@ -3553,21 +3553,21 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="F50" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G50" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H50" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I50" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B51">
         <v>4.9749999999999996</v>
@@ -3582,21 +3582,21 @@
         <v>0.45400000000000001</v>
       </c>
       <c r="F51" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G51" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H51" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I51" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B52">
         <v>6.141</v>
@@ -3611,21 +3611,21 @@
         <v>0.52700000000000002</v>
       </c>
       <c r="F52" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I52" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B53">
         <v>6.1230000000000002</v>
@@ -3640,21 +3640,21 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="F53" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G53" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I53" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B54">
         <v>6.0830000000000002</v>
@@ -3669,21 +3669,21 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="F54" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G54" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H54" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I54" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -3698,21 +3698,21 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G55" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H55" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I55" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B56">
         <v>5.9729999999999999</v>
@@ -3727,21 +3727,21 @@
         <v>0.55600000000000005</v>
       </c>
       <c r="F56" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G56" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H56" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I56" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B57">
         <v>5.7619999999999996</v>
@@ -3756,21 +3756,21 @@
         <v>0.42299999999999999</v>
       </c>
       <c r="F57" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G57" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H57" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I57" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B58">
         <v>5.952</v>
@@ -3785,21 +3785,21 @@
         <v>0.35</v>
       </c>
       <c r="F58" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G58" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H58" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I58" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B59">
         <v>5.9329999999999998</v>
@@ -3814,21 +3814,21 @@
         <v>0.36299999999999999</v>
       </c>
       <c r="F59" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G59" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H59" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I59" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B60">
         <v>5.915</v>
@@ -3843,21 +3843,21 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="F60" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G60" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H60" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I60" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B61">
         <v>5.3019999999999996</v>
@@ -3872,21 +3872,21 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="F61" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G61" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H61" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I61" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B62">
         <v>5.891</v>
@@ -3901,21 +3901,21 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="F62" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G62" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H62" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I62" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B63">
         <v>5.2949999999999999</v>
@@ -3930,21 +3930,21 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="F63" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G63" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H63" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I63" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B64">
         <v>5.89</v>
@@ -3959,21 +3959,21 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="F64" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G64" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H64" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I64" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B65">
         <v>5.7389999999999999</v>
@@ -3988,21 +3988,21 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="F65" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G65" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H65" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I65" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B66">
         <v>5.79</v>
@@ -4017,21 +4017,21 @@
         <v>0.45400000000000001</v>
       </c>
       <c r="F66" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G66" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H66" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I66" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B67">
         <v>4.3499999999999996</v>
@@ -4046,21 +4046,21 @@
         <v>0.45200000000000001</v>
       </c>
       <c r="F67" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G67" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H67" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I67" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B68">
         <v>5.6630000000000003</v>
@@ -4075,21 +4075,21 @@
         <v>0.53</v>
       </c>
       <c r="F68" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G68" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H68" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I68" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B69">
         <v>4.758</v>
@@ -4104,21 +4104,21 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="F69" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G69" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H69" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I69" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B70">
         <v>5.64</v>
@@ -4136,18 +4136,18 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H70" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I70" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B71">
         <v>4.34</v>
@@ -4162,21 +4162,21 @@
         <v>0.375</v>
       </c>
       <c r="F71" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G71" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H71" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I71" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B72">
         <v>5.62</v>
@@ -4191,21 +4191,21 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="F72" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G72" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H72" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I72" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B73">
         <v>4.657</v>
@@ -4220,21 +4220,21 @@
         <v>0.499</v>
       </c>
       <c r="F73" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G73" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H73" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I73" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B74">
         <v>5.5659999999999998</v>
@@ -4249,21 +4249,21 @@
         <v>0.496</v>
       </c>
       <c r="F74" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G74" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H74" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I74" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B75">
         <v>5.524</v>
@@ -4278,21 +4278,21 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="F75" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G75" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H75" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I75" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B76">
         <v>3.964</v>
@@ -4307,21 +4307,21 @@
         <v>0.39400000000000002</v>
       </c>
       <c r="F76" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G76" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H76" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I76" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B77">
         <v>5.5039999999999996</v>
@@ -4336,21 +4336,21 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="F77" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G77" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H77" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I77" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B78">
         <v>5.4720000000000004</v>
@@ -4365,21 +4365,21 @@
         <v>0.33400000000000002</v>
       </c>
       <c r="F78" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G78" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H78" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I78" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B79">
         <v>5.3579999999999997</v>
@@ -4394,21 +4394,21 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="F79" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G79" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H79" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I79" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B80">
         <v>5.3579999999999997</v>
@@ -4423,21 +4423,21 @@
         <v>0.503</v>
       </c>
       <c r="F80" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G80" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H80" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I80" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B81">
         <v>5.3470000000000004</v>
@@ -4452,21 +4452,21 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="F81" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G81" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H81" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I81" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B82">
         <v>5.3209999999999997</v>
@@ -4481,21 +4481,21 @@
         <v>0.38</v>
       </c>
       <c r="F82" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G82" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H82" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I82" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B83">
         <v>3.5819999999999999</v>
@@ -4510,21 +4510,21 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F83" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G83" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H83" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I83" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B84">
         <v>5.2539999999999996</v>
@@ -4539,21 +4539,21 @@
         <v>0.46</v>
       </c>
       <c r="F84" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G84" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H84" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I84" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B85">
         <v>5.093</v>
@@ -4568,21 +4568,21 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="F85" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G85" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H85" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I85" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B86">
         <v>4.1900000000000004</v>
@@ -4597,21 +4597,21 @@
         <v>0.53900000000000003</v>
       </c>
       <c r="F86" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G86" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H86" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I86" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B87">
         <v>5.1609999999999996</v>
@@ -4626,21 +4626,21 @@
         <v>0.46800000000000003</v>
       </c>
       <c r="F87" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G87" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H87" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I87" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B88">
         <v>5.1550000000000002</v>
@@ -4655,21 +4655,21 @@
         <v>0.46200000000000002</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G88" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H88" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I88" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B89">
         <v>4.4560000000000004</v>
@@ -4684,21 +4684,21 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="F89" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G89" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H89" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I89" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B90">
         <v>5.125</v>
@@ -4713,21 +4713,21 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G90" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H90" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I90" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B91">
         <v>4.41</v>
@@ -4742,21 +4742,21 @@
         <v>0.504</v>
       </c>
       <c r="F91" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G91" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H91" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I91" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B92">
         <v>4.88</v>
@@ -4771,21 +4771,21 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="F92" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G92" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H92" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I92" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B93">
         <v>4.4329999999999998</v>
@@ -4800,21 +4800,21 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="F93" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G93" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H93" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I93" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B94">
         <v>3.4950000000000001</v>
@@ -4829,21 +4829,21 @@
         <v>0.41899999999999998</v>
       </c>
       <c r="F94" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G94" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H94" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I94" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B95">
         <v>4.4710000000000001</v>
@@ -4858,21 +4858,21 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="F95" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G95" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H95" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I95" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B96">
         <v>3.8079999999999998</v>
@@ -4887,21 +4887,21 @@
         <v>0.42299999999999999</v>
       </c>
       <c r="F96" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G96" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H96" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I96" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B97">
         <v>4.4470000000000001</v>
@@ -4916,21 +4916,21 @@
         <v>0.36699999999999999</v>
       </c>
       <c r="F97" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G97" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H97" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I97" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B98">
         <v>4.4409999999999998</v>
@@ -4945,21 +4945,21 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="F98" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G98" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H98" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I98" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B99">
         <v>3.774</v>
@@ -4974,21 +4974,21 @@
         <v>0.221</v>
       </c>
       <c r="F99" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G99" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H99" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I99" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B100">
         <v>4.4169999999999998</v>
@@ -5003,21 +5003,21 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="F100" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G100" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H100" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I100" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B101">
         <v>4.3559999999999999</v>
@@ -5032,21 +5032,21 @@
         <v>0.129</v>
       </c>
       <c r="F101" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G101" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H101" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I101" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B102">
         <v>4.3079999999999998</v>
@@ -5061,21 +5061,21 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F102" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G102" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H102" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I102" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B103">
         <v>4.1660000000000004</v>
@@ -5090,21 +5090,21 @@
         <v>0.39</v>
       </c>
       <c r="F103" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G103" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H103" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I103" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B104">
         <v>3.5870000000000002</v>
@@ -5119,21 +5119,21 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="F104" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G104" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H104" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I104" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B105">
         <v>5.41</v>
@@ -5148,21 +5148,21 @@
         <v>0.56200000000000006</v>
       </c>
       <c r="F105" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G105" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H105" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I105" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B106">
         <v>5.681</v>
@@ -5177,21 +5177,21 @@
         <v>0.54100000000000004</v>
       </c>
       <c r="F106" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G106" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H106" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I106" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B107">
         <v>6.3739999999999997</v>
@@ -5206,21 +5206,21 @@
         <v>0.65400000000000003</v>
       </c>
       <c r="F107" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G107" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H107" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I107" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B108">
         <v>5.9450000000000003</v>
@@ -5235,21 +5235,21 @@
         <v>0.52800000000000002</v>
       </c>
       <c r="F108" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G108" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H108" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="I108" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B109">
         <v>3.4079999999999999</v>
@@ -5264,21 +5264,21 @@
         <v>0.63600000000000001</v>
       </c>
       <c r="F109" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G109" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H109" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I109" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B110">
         <v>6.3710000000000004</v>
@@ -5293,21 +5293,21 @@
         <v>0.50900000000000001</v>
       </c>
       <c r="F110" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G110" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H110" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I110" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B111">
         <v>4.1390000000000002</v>
@@ -5322,21 +5322,21 @@
         <v>1.6E-2</v>
       </c>
       <c r="F111" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G111" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H111" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I111" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B112">
         <v>4.6310000000000002</v>
@@ -5351,21 +5351,21 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="F112" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G112" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H112" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I112" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B113">
         <v>6.343</v>
@@ -5380,21 +5380,21 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="F113" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G113" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="H113" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I113" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B114">
         <v>4.5709999999999997</v>
@@ -5409,21 +5409,21 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="F114" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G114" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H114" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I114" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B115">
         <v>6.1669999999999998</v>
@@ -5438,21 +5438,21 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="F115" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G115" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H115" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="I115" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B116">
         <v>4.9820000000000002</v>
@@ -5467,21 +5467,21 @@
         <v>0.67400000000000004</v>
       </c>
       <c r="F116" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G116" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H116" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I116" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B117">
         <v>5.3979999999999997</v>
@@ -5496,21 +5496,21 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="F117" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G117" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H117" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="I117" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B118">
         <v>5.9480000000000004</v>
@@ -5525,21 +5525,21 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="F118" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G118" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H118" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="I118" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B119">
         <v>7.3140000000000001</v>
@@ -5554,21 +5554,21 @@
         <v>0.65900000000000003</v>
       </c>
       <c r="F119" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G119" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H119" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I119" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B120">
         <v>4.3010000000000002</v>
@@ -5583,21 +5583,21 @@
         <v>0.189</v>
       </c>
       <c r="F120" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G120" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H120" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I120" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B121">
         <v>3.9990000000000001</v>
@@ -5612,21 +5612,21 @@
         <v>0.434</v>
       </c>
       <c r="F121" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G121" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H121" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="I121" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B122">
         <v>6.0720000000000001</v>
@@ -5641,21 +5641,21 @@
         <v>0.63700000000000001</v>
       </c>
       <c r="F122" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G122" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H122" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I122" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B123">
         <v>5.1989999999999998</v>
@@ -5670,21 +5670,21 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="F123" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G123" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H123" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I123" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B124">
         <v>5.6360000000000001</v>
@@ -5699,21 +5699,21 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="F124" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G124" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H124" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I124" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B125">
         <v>4.5919999999999996</v>
@@ -5728,21 +5728,21 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="F125" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G125" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H125" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="I125" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B126">
         <v>5.4829999999999997</v>
@@ -5757,21 +5757,21 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="F126" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G126" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H126" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I126" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B127">
         <v>3.3029999999999999</v>
@@ -5786,21 +5786,21 @@
         <v>0.48099999999999998</v>
       </c>
       <c r="F127" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G127" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H127" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="I127" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B128">
         <v>4.1609999999999996</v>
@@ -5815,21 +5815,21 @@
         <v>0.45</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G128" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H128" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I128" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B129">
         <v>4.1029999999999998</v>
@@ -5844,21 +5844,21 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="F129" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G129" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H129" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="I129" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B130">
         <v>6.3789999999999996</v>
@@ -5873,21 +5873,21 @@
         <v>0.625</v>
       </c>
       <c r="F130" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G130" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H130" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="I130" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B131">
         <v>6.8860000000000001</v>
@@ -5902,21 +5902,21 @@
         <v>0.54700000000000004</v>
       </c>
       <c r="F131" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G131" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H131" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I131" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B132">
         <v>6.0960000000000001</v>
@@ -5931,21 +5931,21 @@
         <v>0.72399999999999998</v>
       </c>
       <c r="F132" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G132" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H132" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="I132" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B133">
         <v>5.1029999999999998</v>
@@ -5960,21 +5960,21 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="F133" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G133" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H133" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I133" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B134">
         <v>4.7240000000000002</v>
@@ -5989,21 +5989,21 @@
         <v>0.51600000000000001</v>
       </c>
       <c r="F134" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G134" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H134" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I134" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B135">
         <v>4.3769999999999998</v>
@@ -6018,21 +6018,21 @@
         <v>0.503</v>
       </c>
       <c r="F135" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G135" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H135" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I135" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B136">
         <v>3.6920000000000002</v>
@@ -6047,21 +6047,21 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="F136" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G136" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H136" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I136" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B137">
         <v>6.1920000000000002</v>
@@ -6076,21 +6076,21 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="F137" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G137" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H137" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="I137" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B138">
         <v>6.173</v>
@@ -6105,21 +6105,21 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="F138" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G138" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H138" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="I138" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B139">
         <v>5.81</v>
@@ -6134,21 +6134,21 @@
         <v>0.39900000000000002</v>
       </c>
       <c r="F139" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G139" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H139" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="I139" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B140">
         <v>5.43</v>
@@ -6163,21 +6163,21 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H140" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="I140" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B141">
         <v>4.806</v>
@@ -6192,21 +6192,21 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="F141" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G141" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H141" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I141" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B142">
         <v>4.7069999999999999</v>
@@ -6221,21 +6221,21 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="F142" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G142" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H142" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I142" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B143">
         <v>4.6230000000000002</v>
@@ -6250,21 +6250,21 @@
         <v>0.626</v>
       </c>
       <c r="F143" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G143" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H143" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="I143" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B144">
         <v>4.5590000000000002</v>
@@ -6279,21 +6279,21 @@
         <v>0.51400000000000001</v>
       </c>
       <c r="F144" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G144" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H144" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="I144" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B145">
         <v>4.4189999999999996</v>
@@ -6308,21 +6308,21 @@
         <v>0.312</v>
       </c>
       <c r="F145" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G145" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H145" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="I145" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B146">
         <v>4.2450000000000001</v>
@@ -6337,21 +6337,21 @@
         <v>0.312</v>
       </c>
       <c r="F146" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G146" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H146" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="I146" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B147">
         <v>3.4620000000000002</v>
@@ -6366,21 +6366,21 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="F147" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G147" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H147" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I147" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B148">
         <v>3.355</v>
@@ -6395,16 +6395,16 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="F148" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G148" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H148" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="I148" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
